--- a/noise_data.xlsx
+++ b/noise_data.xlsx
@@ -471,7 +471,7 @@
         <v>6.763197723463569E+58</v>
       </c>
       <c r="K2">
-        <v>109.3012740312041</v>
+        <v>-109.3012740312041</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,7 +506,7 @@
         <v>5.580543111607315E+60</v>
       </c>
       <c r="K3">
-        <v>100.4076322973275</v>
+        <v>-100.4076322973275</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,7 +541,7 @@
         <v>7.989318517218879E+61</v>
       </c>
       <c r="K4">
-        <v>95.25965799787622</v>
+        <v>-95.25965799787622</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,7 +576,7 @@
         <v>5.242633947463565E+62</v>
       </c>
       <c r="K5">
-        <v>91.64599775940633</v>
+        <v>-91.64599775940633</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,7 +611,7 @@
         <v>2.217645848801173E+63</v>
       </c>
       <c r="K6">
-        <v>88.87316998473915</v>
+        <v>-88.87316998473915</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,7 +646,7 @@
         <v>7.101150572809776E+63</v>
       </c>
       <c r="K7">
-        <v>86.63220278270401</v>
+        <v>-86.63220278270401</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,7 +681,7 @@
         <v>1.880031910979815E+64</v>
       </c>
       <c r="K8">
-        <v>84.75826909474651</v>
+        <v>-84.75826909474651</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,7 +716,7 @@
         <v>4.339922767899834E+64</v>
       </c>
       <c r="K9">
-        <v>83.1529806727865</v>
+        <v>-83.1529806727865</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,7 +751,7 @@
         <v>9.038452875665962E+64</v>
       </c>
       <c r="K10">
-        <v>81.75287498560643</v>
+        <v>-81.75287498560643</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +786,7 @@
         <v>1.737690830382414E+65</v>
       </c>
       <c r="K11">
-        <v>80.51462025488</v>
+        <v>-80.51462025488</v>
       </c>
     </row>
   </sheetData>
